--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531319B4-5AE5-43FF-AD43-92DDB0014180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667DAA35-D392-4F2D-B39A-54776F7567E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="202">
   <si>
     <t>Name</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>DelayLong</t>
-  </si>
-  <si>
-    <t>ExceptionAttachmentPath</t>
   </si>
   <si>
     <t>DelayAfterShort</t>
@@ -601,9 +598,6 @@
   </si>
   <si>
     <t>Process start notification email body text at the start of the process</t>
-  </si>
-  <si>
-    <t>DO and Invoice Process Automation bot 2 Started Run for</t>
   </si>
   <si>
     <t>Hello Receiver, 
@@ -638,6 +632,45 @@
 Note: This is auto generated email by bot please don't reply to this.
 Thanks,
 Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO and Invoice Process Automation bot 2 Started Run for </t>
+  </si>
+  <si>
+    <t>StdDescriptionMonthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTHLY RENTAL ONE UNIT OF </t>
+  </si>
+  <si>
+    <t>STANDARD QUOTATION</t>
+  </si>
+  <si>
+    <t>Standard line description to be added in invoice for Monthly</t>
+  </si>
+  <si>
+    <t>Quotation Sheet required for Daily and Consolidated processes</t>
+  </si>
+  <si>
+    <t>QuotationFileSheetStandard</t>
+  </si>
+  <si>
+    <t>Equipment Descrption 2 (Standard Quotation)</t>
+  </si>
+  <si>
+    <t>DecriptionForStandardQuotation</t>
+  </si>
+  <si>
+    <t>DOVName / Job Type</t>
+  </si>
+  <si>
+    <t>JobTypeColFromMasterFile</t>
+  </si>
+  <si>
+    <t>QBkVName</t>
+  </si>
+  <si>
+    <t>QBkvVehicleTypeFromMasterFile</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z972"/>
+  <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1083,7 +1116,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -1094,7 +1127,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1105,18 +1138,18 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1124,10 +1157,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1138,18 +1171,18 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1160,7 +1193,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1171,7 +1204,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -1179,10 +1212,10 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="42.6" customHeight="1">
@@ -1190,32 +1223,32 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="25.2" customHeight="1">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
@@ -1223,10 +1256,10 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -1234,10 +1267,10 @@
         <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -1245,10 +1278,10 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1256,10 +1289,10 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1267,10 +1300,10 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1278,21 +1311,21 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1300,21 +1333,21 @@
         <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -1325,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -1336,7 +1369,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -1347,286 +1380,327 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
-        <v>77</v>
-      </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
       <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" t="s">
         <v>80</v>
       </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
         <v>85</v>
       </c>
-      <c r="B36" t="s">
-        <v>86</v>
-      </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
         <v>88</v>
       </c>
-      <c r="B37" t="s">
-        <v>89</v>
-      </c>
       <c r="C37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41">
         <v>10000</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
         <v>97</v>
       </c>
-      <c r="B42" t="s">
-        <v>98</v>
-      </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
         <v>99</v>
       </c>
-      <c r="B43" t="s">
-        <v>100</v>
-      </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
         <v>112</v>
       </c>
-      <c r="B44" t="s">
-        <v>113</v>
-      </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" t="s">
         <v>159</v>
       </c>
-      <c r="B47" t="s">
-        <v>160</v>
-      </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
         <v>168</v>
       </c>
-      <c r="B48" t="s">
-        <v>169</v>
-      </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
         <v>170</v>
       </c>
-      <c r="B49" t="s">
-        <v>171</v>
-      </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" t="s">
         <v>178</v>
-      </c>
-      <c r="B50" t="s">
-        <v>182</v>
-      </c>
-      <c r="C50" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" t="s">
         <v>180</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="55" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="56" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="57" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="58" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A54" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A55" t="s">
+        <v>195</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+    </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2540,7 +2614,6 @@
     <row r="969" ht="14.25" customHeight="1"/>
     <row r="970" ht="14.25" customHeight="1"/>
     <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2552,7 +2625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3716,7 +3789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
@@ -3769,10 +3842,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -3780,10 +3853,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4794,7 +4867,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4815,10 +4888,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
         <v>176</v>
-      </c>
-      <c r="C2" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667DAA35-D392-4F2D-B39A-54776F7567E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3C1F04-814F-4AC2-9F3B-8559B4FFF1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="7500" windowHeight="3000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="283">
   <si>
     <t>Name</t>
   </si>
@@ -525,16 +525,10 @@
 Note: This is auto generated email by</t>
   </si>
   <si>
-    <t>M:\2. Sales Department\Unipath\Merged Files</t>
-  </si>
-  <si>
     <t>MergedFiles</t>
   </si>
   <si>
     <t>QuotationFilePath</t>
-  </si>
-  <si>
-    <t>M:\2. Sales Department\Unipath\Quotations</t>
   </si>
   <si>
     <t>Input File Path used by Bot</t>
@@ -671,6 +665,255 @@
   </si>
   <si>
     <t>QBkvVehicleTypeFromMasterFile</t>
+  </si>
+  <si>
+    <t>RetryIntervalShort</t>
+  </si>
+  <si>
+    <t>RetryIntervalMedium</t>
+  </si>
+  <si>
+    <t>RetryIntervalLong</t>
+  </si>
+  <si>
+    <t>DelayBeforeMS</t>
+  </si>
+  <si>
+    <t>Time span Short</t>
+  </si>
+  <si>
+    <t>Time span Medium</t>
+  </si>
+  <si>
+    <t>Time span Long</t>
+  </si>
+  <si>
+    <t>Delay Before Milliseconds</t>
+  </si>
+  <si>
+    <t>Description column to be checked from Master file to fetch description for quickbooks for Standard quotation</t>
+  </si>
+  <si>
+    <t>Job Type column name from Master file to be mapped for Job Type</t>
+  </si>
+  <si>
+    <t>Quickbook vehicle type column to be mapped for fetching Vehicle type for quickbooks</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Merged Files\</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Quotations\</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>DelayBetweenKeys</t>
+  </si>
+  <si>
+    <t>Delay between keys</t>
+  </si>
+  <si>
+    <t>DONumberCol</t>
+  </si>
+  <si>
+    <t>DO Number</t>
+  </si>
+  <si>
+    <t>CompanyNameCol</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>ItemGroupCol</t>
+  </si>
+  <si>
+    <t>Item Group</t>
+  </si>
+  <si>
+    <t>ItemSerialCol</t>
+  </si>
+  <si>
+    <t>Item Serial</t>
+  </si>
+  <si>
+    <t>JobTypeCol</t>
+  </si>
+  <si>
+    <t>Job Type</t>
+  </si>
+  <si>
+    <t>JobSiteAddressCol</t>
+  </si>
+  <si>
+    <t>Job Site address</t>
+  </si>
+  <si>
+    <t>StartTime1Col</t>
+  </si>
+  <si>
+    <t>Start Time 1</t>
+  </si>
+  <si>
+    <t>EndTime1Col</t>
+  </si>
+  <si>
+    <t>End Time 1</t>
+  </si>
+  <si>
+    <t>StartTime2Col</t>
+  </si>
+  <si>
+    <t>Start Time 2</t>
+  </si>
+  <si>
+    <t>EndTime2Col</t>
+  </si>
+  <si>
+    <t>End Time 2</t>
+  </si>
+  <si>
+    <t>SignatureCol</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>DOorTimesheetFilePathCol</t>
+  </si>
+  <si>
+    <t>DO or Timesheet File Path</t>
+  </si>
+  <si>
+    <t>MonthlyExcelFilePathCol</t>
+  </si>
+  <si>
+    <t>Monthly Excel File Path</t>
+  </si>
+  <si>
+    <t>StatusBot1Col</t>
+  </si>
+  <si>
+    <t>Status Bot1</t>
+  </si>
+  <si>
+    <t>Comments1Col</t>
+  </si>
+  <si>
+    <t>Comments1</t>
+  </si>
+  <si>
+    <t>CustomerNameCol</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>StatusBot2Col</t>
+  </si>
+  <si>
+    <t>Status Bot2</t>
+  </si>
+  <si>
+    <t>Comments2Col</t>
+  </si>
+  <si>
+    <t>Comments2</t>
+  </si>
+  <si>
+    <t>POFolderName</t>
+  </si>
+  <si>
+    <t>Purchase Orders</t>
+  </si>
+  <si>
+    <t>QuotationFolderName</t>
+  </si>
+  <si>
+    <t>Quotations Files</t>
+  </si>
+  <si>
+    <t>DOFolderName</t>
+  </si>
+  <si>
+    <t>Delivery Orders</t>
+  </si>
+  <si>
+    <t>MasterFileFolderName</t>
+  </si>
+  <si>
+    <t>Master Files</t>
+  </si>
+  <si>
+    <t>TimesheetsFolderName</t>
+  </si>
+  <si>
+    <t>Timesheets</t>
+  </si>
+  <si>
+    <t>ScheduleDetailsFileFolderName</t>
+  </si>
+  <si>
+    <t>Schedule Details File</t>
+  </si>
+  <si>
+    <t>Master File</t>
+  </si>
+  <si>
+    <t>InvoicesFolderName</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>DailyName</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>ConsoName</t>
+  </si>
+  <si>
+    <t>Consolidated</t>
+  </si>
+  <si>
+    <t>MonthlyName</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>00:00:03</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Business Exception</t>
+  </si>
+  <si>
+    <t>System Exception</t>
+  </si>
+  <si>
+    <t>StatusSuccessMessage</t>
+  </si>
+  <si>
+    <t>StatusBEMessage</t>
+  </si>
+  <si>
+    <t>StatusSEMessage</t>
+  </si>
+  <si>
+    <t>CommentsSuccessMessage</t>
   </si>
 </sst>
 </file>
@@ -723,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -734,6 +977,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1149,7 +1393,7 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1157,10 +1401,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1289,7 +1533,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
         <v>132</v>
@@ -1344,7 +1588,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s">
         <v>137</v>
@@ -1498,10 +1742,10 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
@@ -1523,7 +1767,7 @@
         <v>10000</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
@@ -1572,173 +1816,460 @@
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C54" t="s">
         <v>191</v>
-      </c>
-      <c r="C54" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C55" t="s">
         <v>192</v>
-      </c>
-      <c r="C55" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>194</v>
+      </c>
+      <c r="C56" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="C57" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
         <v>201</v>
       </c>
-      <c r="B58" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="60" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="62" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
+      <c r="B60" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A61" t="s">
+        <v>202</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63">
+        <v>0.1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A64" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A67" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A68" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A70" t="s">
+        <v>228</v>
+      </c>
+      <c r="B70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
+        <v>232</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A74" t="s">
+        <v>236</v>
+      </c>
+      <c r="B74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A75" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A76" t="s">
+        <v>240</v>
+      </c>
+      <c r="B76" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A77" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A78" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A79" t="s">
+        <v>246</v>
+      </c>
+      <c r="B79" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A80" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A81" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A84" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A85" t="s">
+        <v>258</v>
+      </c>
+      <c r="B85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A86" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A87" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A89" t="s">
+        <v>265</v>
+      </c>
+      <c r="B89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A90" t="s">
+        <v>267</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A91" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A92" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A93" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A94" t="s">
+        <v>280</v>
+      </c>
+      <c r="B94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A95" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A96" t="s">
+        <v>282</v>
+      </c>
+    </row>
     <row r="97" ht="14.25" customHeight="1"/>
     <row r="98" ht="14.25" customHeight="1"/>
     <row r="99" ht="14.25" customHeight="1"/>
@@ -3789,7 +4320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
@@ -3845,7 +4376,7 @@
         <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -3856,7 +4387,7 @@
         <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4866,7 +5397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629EBD4-D623-4412-BFCC-92D2968B0626}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
@@ -4888,10 +5419,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3C1F04-814F-4AC2-9F3B-8559B4FFF1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39932D5-B33E-49C8-8D37-C834A230F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="7500" windowHeight="3000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="4200" windowWidth="7500" windowHeight="3840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="314">
   <si>
     <t>Name</t>
   </si>
@@ -914,6 +914,99 @@
   </si>
   <si>
     <t>CommentsSuccessMessage</t>
+  </si>
+  <si>
+    <t>DONumber Col from Master file</t>
+  </si>
+  <si>
+    <t>Company Name col</t>
+  </si>
+  <si>
+    <t>Item Group col</t>
+  </si>
+  <si>
+    <t>Item Serial Col from Master file</t>
+  </si>
+  <si>
+    <t>Job Type col</t>
+  </si>
+  <si>
+    <t>Job Site Address Col from Master file</t>
+  </si>
+  <si>
+    <t>POFolder Folder Name</t>
+  </si>
+  <si>
+    <t>Quotation Folder name</t>
+  </si>
+  <si>
+    <t>DOFolder Folder Name</t>
+  </si>
+  <si>
+    <t>Master file folder name</t>
+  </si>
+  <si>
+    <t>Timesheet Folder Name</t>
+  </si>
+  <si>
+    <t>Schedule Details File Folder Name from Master file</t>
+  </si>
+  <si>
+    <t>InvoicesF Folder Name</t>
+  </si>
+  <si>
+    <t>Daily Name</t>
+  </si>
+  <si>
+    <t>Consolidated Name</t>
+  </si>
+  <si>
+    <t>Monthly Name</t>
+  </si>
+  <si>
+    <t>Start Time 1 Col  from Master file</t>
+  </si>
+  <si>
+    <t>End Time 1 Col  from Master file</t>
+  </si>
+  <si>
+    <t>Start Time 2 Col from Master file</t>
+  </si>
+  <si>
+    <t>End Time 2 Col from Master file</t>
+  </si>
+  <si>
+    <t>Signature Col from Master file</t>
+  </si>
+  <si>
+    <t>DO r timesheet file path col from Master file</t>
+  </si>
+  <si>
+    <t>Monthly excel file path col from Master file</t>
+  </si>
+  <si>
+    <t>Status Bot1 Col from Master file</t>
+  </si>
+  <si>
+    <t>Comments1 Col from Master file</t>
+  </si>
+  <si>
+    <t>Customer Name col from Master file</t>
+  </si>
+  <si>
+    <t>Status Bot2 Col from Master file</t>
+  </si>
+  <si>
+    <t>Comments2 Col from Master file</t>
+  </si>
+  <si>
+    <t>Status Message for Successful transaction</t>
+  </si>
+  <si>
+    <t>Status Message for Business Exception</t>
+  </si>
+  <si>
+    <t>Status Message for System Exception</t>
   </si>
 </sst>
 </file>
@@ -1294,8 +1387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2016,256 +2109,352 @@
       <c r="B64" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C64" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
         <v>218</v>
       </c>
       <c r="B65" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C65" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
         <v>220</v>
       </c>
       <c r="B66" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C66" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
         <v>222</v>
       </c>
       <c r="B67" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
         <v>224</v>
       </c>
       <c r="B68" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C68" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
         <v>226</v>
       </c>
       <c r="B69" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
         <v>228</v>
       </c>
       <c r="B70" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C70" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
         <v>230</v>
       </c>
       <c r="B71" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C71" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
         <v>232</v>
       </c>
       <c r="B72" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C72" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
         <v>234</v>
       </c>
       <c r="B73" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C73" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
         <v>236</v>
       </c>
       <c r="B74" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C74" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
         <v>238</v>
       </c>
       <c r="B75" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C75" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
         <v>240</v>
       </c>
       <c r="B76" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C76" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
         <v>242</v>
       </c>
       <c r="B77" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C77" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
         <v>244</v>
       </c>
       <c r="B78" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C78" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
         <v>246</v>
       </c>
       <c r="B79" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C79" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
         <v>248</v>
       </c>
       <c r="B80" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C80" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
         <v>250</v>
       </c>
       <c r="B81" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C81" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" t="s">
         <v>252</v>
       </c>
       <c r="B82" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="s">
         <v>254</v>
       </c>
       <c r="B83" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C83" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
         <v>256</v>
       </c>
       <c r="B84" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C84" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="s">
         <v>258</v>
       </c>
       <c r="B85" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C85" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
         <v>260</v>
       </c>
       <c r="B86" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C86" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
         <v>262</v>
       </c>
       <c r="B87" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C87" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
         <v>258</v>
       </c>
       <c r="B88" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C88" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
         <v>265</v>
       </c>
       <c r="B89" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C89" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
         <v>267</v>
       </c>
       <c r="B90" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C90" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
         <v>269</v>
       </c>
       <c r="B91" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C91" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
         <v>271</v>
       </c>
       <c r="B92" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C92" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
         <v>279</v>
       </c>
       <c r="B93" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C93" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
         <v>280</v>
       </c>
       <c r="B94" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C94" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="s">
         <v>281</v>
       </c>
       <c r="B95" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="14.25" customHeight="1">
+      <c r="C95" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
         <v>282</v>
       </c>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39932D5-B33E-49C8-8D37-C834A230F006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB29786-4484-4C2D-BAEF-C2D19F9570C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="4200" windowWidth="7500" windowHeight="3840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="4200" windowWidth="7500" windowHeight="6000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="340">
   <si>
     <t>Name</t>
   </si>
@@ -1007,6 +1007,84 @@
   </si>
   <si>
     <t>Status Message for System Exception</t>
+  </si>
+  <si>
+    <t>Quotation Number</t>
+  </si>
+  <si>
+    <t>QuotationNumCol</t>
+  </si>
+  <si>
+    <t>Quotation File Path</t>
+  </si>
+  <si>
+    <t>QuotationFilePathCol</t>
+  </si>
+  <si>
+    <t>PO Number</t>
+  </si>
+  <si>
+    <t>PONumberCol</t>
+  </si>
+  <si>
+    <t>PO File Path</t>
+  </si>
+  <si>
+    <t>POFilePathCol</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>ProjectCodeCol</t>
+  </si>
+  <si>
+    <t>Invoice File Path</t>
+  </si>
+  <si>
+    <t>InvoiceFilePathCol</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>InvoiceNumberCol</t>
+  </si>
+  <si>
+    <t>To Proceed with Invoice (Y/N)</t>
+  </si>
+  <si>
+    <t>ToProceedWithInvoiceCol</t>
+  </si>
+  <si>
+    <t>Need to pass empty value to comment when transaction is successful</t>
+  </si>
+  <si>
+    <t>Quotation File Path in Master file</t>
+  </si>
+  <si>
+    <t>Invoice File Path in Master file</t>
+  </si>
+  <si>
+    <t>PO File Path in Master file</t>
+  </si>
+  <si>
+    <t>PO Number in Master file</t>
+  </si>
+  <si>
+    <t>Project Code in Master file</t>
+  </si>
+  <si>
+    <t>Invoice Number in Master file</t>
+  </si>
+  <si>
+    <t>To Proceed with Invoice (Y/N) in Master file</t>
+  </si>
+  <si>
+    <t>DelayBeforeAfter</t>
+  </si>
+  <si>
+    <t>DelayOneThousand</t>
   </si>
 </sst>
 </file>
@@ -1387,8 +1465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2458,23 +2536,120 @@
       <c r="A96" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
+      <c r="C96" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A97" t="s">
+        <v>315</v>
+      </c>
+      <c r="B97" t="s">
+        <v>314</v>
+      </c>
+      <c r="C97" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A98" t="s">
+        <v>317</v>
+      </c>
+      <c r="B98" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A99" t="s">
+        <v>319</v>
+      </c>
+      <c r="B99" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A100" t="s">
+        <v>321</v>
+      </c>
+      <c r="B100" t="s">
+        <v>320</v>
+      </c>
+      <c r="C100" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A101" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A102" t="s">
+        <v>325</v>
+      </c>
+      <c r="B102" t="s">
+        <v>324</v>
+      </c>
+      <c r="C102" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A103" t="s">
+        <v>327</v>
+      </c>
+      <c r="B103" t="s">
+        <v>326</v>
+      </c>
+      <c r="C103" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A104" t="s">
+        <v>329</v>
+      </c>
+      <c r="B104" t="s">
+        <v>328</v>
+      </c>
+      <c r="C104" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A105" t="s">
+        <v>338</v>
+      </c>
+      <c r="B105">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A106" t="s">
+        <v>339</v>
+      </c>
+      <c r="B106">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="113" ht="14.25" customHeight="1"/>
     <row r="114" ht="14.25" customHeight="1"/>
     <row r="115" ht="14.25" customHeight="1"/>
@@ -5586,8 +5761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629EBD4-D623-4412-BFCC-92D2968B0626}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB29786-4484-4C2D-BAEF-C2D19F9570C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39567546-08A1-429D-BA05-1A9EB8B6C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1740" yWindow="4200" windowWidth="7500" windowHeight="6000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39567546-08A1-429D-BA05-1A9EB8B6C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202AA9F5-EF4B-495B-8DA4-AC6E4D873FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="4200" windowWidth="7500" windowHeight="6000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -312,9 +312,6 @@
     <t>CustomerMessage</t>
   </si>
   <si>
-    <t>E. &amp; O.E. No complain will be considered unless notified within 10 days of this invoice date.</t>
-  </si>
-  <si>
     <t>TimeoutShort</t>
   </si>
   <si>
@@ -1085,6 +1082,10 @@
   </si>
   <si>
     <t>DelayOneThousand</t>
+  </si>
+  <si>
+    <t>E. &amp; O.E.
+No complain will be considered unless notified within 10 days of this invoice date.</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
@@ -1531,7 +1532,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -1542,7 +1543,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1553,7 +1554,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1564,7 +1565,7 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1572,10 +1573,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1586,7 +1587,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1597,7 +1598,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1608,7 +1609,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1619,7 +1620,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -1627,10 +1628,10 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="42.6" customHeight="1">
@@ -1641,29 +1642,29 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="25.2" customHeight="1">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
@@ -1671,10 +1672,10 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -1682,10 +1683,10 @@
         <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -1693,10 +1694,10 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1704,10 +1705,10 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1715,10 +1716,10 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1726,10 +1727,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -1737,10 +1738,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1748,10 +1749,10 @@
         <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -1759,10 +1760,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -1773,7 +1774,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -1784,7 +1785,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -1795,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -1806,7 +1807,7 @@
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -1817,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -1828,7 +1829,7 @@
         <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -1839,7 +1840,7 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -1850,7 +1851,7 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -1861,7 +1862,7 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
@@ -1872,7 +1873,7 @@
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -1883,7 +1884,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -1894,7 +1895,7 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
@@ -1905,7 +1906,7 @@
         <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
@@ -1913,10 +1914,10 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
@@ -1924,713 +1925,713 @@
         <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41">
         <v>10000</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
         <v>96</v>
       </c>
-      <c r="B42" t="s">
-        <v>97</v>
-      </c>
       <c r="C42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
       <c r="C43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
         <v>111</v>
       </c>
-      <c r="B44" t="s">
-        <v>112</v>
-      </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" t="s">
         <v>165</v>
       </c>
-      <c r="B48" t="s">
-        <v>166</v>
-      </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
         <v>167</v>
       </c>
-      <c r="B49" t="s">
-        <v>168</v>
-      </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
         <v>175</v>
-      </c>
-      <c r="B50" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" t="s">
         <v>177</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C51" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
         <v>188</v>
       </c>
-      <c r="B54" t="s">
-        <v>189</v>
-      </c>
       <c r="C54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B63">
         <v>0.1</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" t="s">
         <v>216</v>
       </c>
-      <c r="B64" t="s">
-        <v>217</v>
-      </c>
       <c r="C64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
+        <v>217</v>
+      </c>
+      <c r="B65" t="s">
         <v>218</v>
       </c>
-      <c r="B65" t="s">
-        <v>219</v>
-      </c>
       <c r="C65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" t="s">
         <v>220</v>
       </c>
-      <c r="B66" t="s">
-        <v>221</v>
-      </c>
       <c r="C66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" t="s">
         <v>222</v>
       </c>
-      <c r="B67" t="s">
-        <v>223</v>
-      </c>
       <c r="C67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B68" t="s">
         <v>224</v>
       </c>
-      <c r="B68" t="s">
-        <v>225</v>
-      </c>
       <c r="C68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
+        <v>225</v>
+      </c>
+      <c r="B69" t="s">
         <v>226</v>
       </c>
-      <c r="B69" t="s">
-        <v>227</v>
-      </c>
       <c r="C69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" t="s">
         <v>228</v>
       </c>
-      <c r="B70" t="s">
-        <v>229</v>
-      </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" t="s">
         <v>230</v>
       </c>
-      <c r="B71" t="s">
-        <v>231</v>
-      </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" t="s">
         <v>232</v>
       </c>
-      <c r="B72" t="s">
-        <v>233</v>
-      </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
+        <v>233</v>
+      </c>
+      <c r="B73" t="s">
         <v>234</v>
       </c>
-      <c r="B73" t="s">
-        <v>235</v>
-      </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
         <v>236</v>
       </c>
-      <c r="B74" t="s">
-        <v>237</v>
-      </c>
       <c r="C74" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
+        <v>237</v>
+      </c>
+      <c r="B75" t="s">
         <v>238</v>
       </c>
-      <c r="B75" t="s">
-        <v>239</v>
-      </c>
       <c r="C75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B76" t="s">
         <v>240</v>
       </c>
-      <c r="B76" t="s">
-        <v>241</v>
-      </c>
       <c r="C76" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
+        <v>241</v>
+      </c>
+      <c r="B77" t="s">
         <v>242</v>
       </c>
-      <c r="B77" t="s">
-        <v>243</v>
-      </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" t="s">
         <v>244</v>
       </c>
-      <c r="B78" t="s">
-        <v>245</v>
-      </c>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" t="s">
         <v>246</v>
       </c>
-      <c r="B79" t="s">
-        <v>247</v>
-      </c>
       <c r="C79" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" t="s">
         <v>248</v>
       </c>
-      <c r="B80" t="s">
-        <v>249</v>
-      </c>
       <c r="C80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" t="s">
         <v>250</v>
       </c>
-      <c r="B81" t="s">
-        <v>251</v>
-      </c>
       <c r="C81" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" t="s">
         <v>252</v>
       </c>
-      <c r="B82" t="s">
-        <v>253</v>
-      </c>
       <c r="C82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" t="s">
         <v>254</v>
       </c>
-      <c r="B83" t="s">
-        <v>255</v>
-      </c>
       <c r="C83" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" t="s">
         <v>256</v>
       </c>
-      <c r="B84" t="s">
-        <v>257</v>
-      </c>
       <c r="C84" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" t="s">
         <v>258</v>
       </c>
-      <c r="B85" t="s">
-        <v>259</v>
-      </c>
       <c r="C85" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
+        <v>259</v>
+      </c>
+      <c r="B86" t="s">
         <v>260</v>
       </c>
-      <c r="B86" t="s">
-        <v>261</v>
-      </c>
       <c r="C86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" t="s">
         <v>262</v>
       </c>
-      <c r="B87" t="s">
-        <v>263</v>
-      </c>
       <c r="C87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C88" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
+        <v>264</v>
+      </c>
+      <c r="B89" t="s">
         <v>265</v>
       </c>
-      <c r="B89" t="s">
-        <v>266</v>
-      </c>
       <c r="C89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" t="s">
         <v>267</v>
       </c>
-      <c r="B90" t="s">
-        <v>268</v>
-      </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" t="s">
         <v>269</v>
       </c>
-      <c r="B91" t="s">
-        <v>270</v>
-      </c>
       <c r="C91" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
         <v>271</v>
       </c>
-      <c r="B92" t="s">
-        <v>272</v>
-      </c>
       <c r="C92" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C97" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C98" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B99" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C99" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C100" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B101" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B102" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B103" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C103" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B104" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C104" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B105">
         <v>2000</v>
@@ -2638,7 +2639,7 @@
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B106">
         <v>1000</v>
@@ -4737,10 +4738,10 @@
         <v>60</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
@@ -4748,10 +4749,10 @@
         <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -5761,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629EBD4-D623-4412-BFCC-92D2968B0626}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5783,10 +5784,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
         <v>173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202AA9F5-EF4B-495B-8DA4-AC6E4D873FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC018743-2ACF-4D6E-BF29-62F02EF61733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2436" yWindow="4200" windowWidth="7500" windowHeight="6000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
@@ -5762,7 +5762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1629EBD4-D623-4412-BFCC-92D2968B0626}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC018743-2ACF-4D6E-BF29-62F02EF61733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E483AC7-A827-4E32-A7E7-080A1B0CF773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="4200" windowWidth="7500" windowHeight="6000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -5769,6 +5769,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E483AC7-A827-4E32-A7E7-080A1B0CF773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A1829-BE77-4CD0-99EC-2F6307D855E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="5388" windowWidth="7500" windowHeight="3000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A1829-BE77-4CD0-99EC-2F6307D855E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE4395-D95C-4714-B0A1-E4A52E038263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="5388" windowWidth="7500" windowHeight="3000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4536" yWindow="7176" windowWidth="7500" windowHeight="2304" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -406,12 +406,6 @@
   </si>
   <si>
     <t>Master file network drive path</t>
-  </si>
-  <si>
-    <t>CCEmailIDs</t>
-  </si>
-  <si>
-    <t>BusinessEmailIDs</t>
   </si>
   <si>
     <t>Sheet name where user and bot will extract the details</t>
@@ -1086,6 +1080,9 @@
   <si>
     <t>E. &amp; O.E.
 No complain will be considered unless notified within 10 days of this invoice date.</t>
+  </si>
+  <si>
+    <t>artee.natu@innowise.us</t>
   </si>
 </sst>
 </file>
@@ -1466,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1565,7 +1562,7 @@
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1573,10 +1570,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1587,7 +1584,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1598,7 +1595,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1609,7 +1606,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1620,7 +1617,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -1631,7 +1628,7 @@
         <v>105</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="42.6" customHeight="1">
@@ -1642,7 +1639,7 @@
         <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="25.2" customHeight="1">
@@ -1653,7 +1650,7 @@
         <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18.600000000000001" customHeight="1">
@@ -1664,7 +1661,7 @@
         <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
@@ -1675,7 +1672,7 @@
         <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -1686,7 +1683,7 @@
         <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -1697,7 +1694,7 @@
         <v>108</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1705,10 +1702,10 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1719,7 +1716,7 @@
         <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1730,7 +1727,7 @@
         <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -1741,7 +1738,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1752,7 +1749,7 @@
         <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -1760,10 +1757,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -1774,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -1785,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -1796,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -1807,7 +1804,7 @@
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -1818,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -1829,7 +1826,7 @@
         <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -1840,7 +1837,7 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -1851,7 +1848,7 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -1862,7 +1859,7 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
@@ -1873,7 +1870,7 @@
         <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
@@ -1884,7 +1881,7 @@
         <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
@@ -1895,7 +1892,7 @@
         <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
@@ -1906,7 +1903,7 @@
         <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
@@ -1914,10 +1911,10 @@
         <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
@@ -1925,10 +1922,10 @@
         <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
@@ -1939,7 +1936,7 @@
         <v>10000</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
@@ -1950,7 +1947,7 @@
         <v>96</v>
       </c>
       <c r="C42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
@@ -1961,7 +1958,7 @@
         <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
@@ -1972,7 +1969,7 @@
         <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
@@ -1983,655 +1980,655 @@
         <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" t="s">
         <v>188</v>
-      </c>
-      <c r="C54" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" t="s">
         <v>189</v>
-      </c>
-      <c r="C55" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C59" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B63">
         <v>0.1</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B65" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C68" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C69" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C72" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C76" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B77" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B81" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C82" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B84" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C84" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C87" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B91" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C93" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C94" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C95" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C96" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B97" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C97" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B98" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C98" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B99" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C99" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B100" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C100" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B102" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C102" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B103" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B104" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C104" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B105">
         <v>2000</v>
@@ -2639,14 +2636,34 @@
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B106">
         <v>1000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="108" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="107" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A107" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C108" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="110" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="111" spans="1:3" ht="14.25" customHeight="1"/>
@@ -4685,8 +4702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -4733,28 +4750,8 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-    </row>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
@@ -5785,10 +5782,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDE4395-D95C-4714-B0A1-E4A52E038263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C560096E-1D42-4D37-88BE-99FE61B2B8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="7176" windowWidth="7500" windowHeight="2304" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5856" yWindow="0" windowWidth="7500" windowHeight="2304" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="341">
   <si>
     <t>Name</t>
   </si>
@@ -1083,6 +1083,12 @@
   </si>
   <si>
     <t>artee.natu@innowise.us</t>
+  </si>
+  <si>
+    <t>CustomerEntityCol</t>
+  </si>
+  <si>
+    <t>Customer Entity</t>
   </si>
 </sst>
 </file>
@@ -1463,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2664,7 +2670,14 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="109" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A109" t="s">
+        <v>339</v>
+      </c>
+      <c r="B109" t="s">
+        <v>340</v>
+      </c>
+    </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="111" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="112" spans="1:3" ht="14.25" customHeight="1"/>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C560096E-1D42-4D37-88BE-99FE61B2B8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC6457-69AB-494E-BD46-9C5339D69110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="0" windowWidth="7500" windowHeight="2304" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="14400" windowHeight="7344" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC6457-69AB-494E-BD46-9C5339D69110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6C693E-FD20-4F94-9710-89F7CB14B2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="14400" windowHeight="7344" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="14400" windowHeight="7344" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="350">
   <si>
     <t>Name</t>
   </si>
@@ -602,9 +602,6 @@
   </si>
   <si>
     <t>MonthlyCustomerSheet</t>
-  </si>
-  <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\ScheduleDetails_Bot2.xlsx</t>
   </si>
   <si>
     <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Exceptions_Screenshots\</t>
@@ -1090,12 +1087,42 @@
   <si>
     <t>Customer Entity</t>
   </si>
+  <si>
+    <t>invoicing@huphin.com.sg</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>HoursTextInvoice</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>MonthTextInvoice</t>
+  </si>
+  <si>
+    <t>OVERTIME WORKED</t>
+  </si>
+  <si>
+    <t>StdOvertimeWorkedText</t>
+  </si>
+  <si>
+    <t>PremOvertimeWorkedText</t>
+  </si>
+  <si>
+    <t>OVERTIME WORKED ON SUNDAYS / PUBLIC HOLIDAYS</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Schedule Detail Files\ScheduleDetails_Bot2.xlsx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1120,6 +1147,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1138,10 +1171,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1153,8 +1187,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1469,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1576,7 +1612,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>181</v>
+        <v>349</v>
       </c>
       <c r="C8" t="s">
         <v>156</v>
@@ -1708,7 +1744,7 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
@@ -1763,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>134</v>
@@ -1928,7 +1964,7 @@
         <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C40" t="s">
         <v>150</v>
@@ -1994,7 +2030,7 @@
         <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" t="s">
         <v>158</v>
@@ -2005,7 +2041,7 @@
         <v>154</v>
       </c>
       <c r="B47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s">
         <v>159</v>
@@ -2038,7 +2074,7 @@
         <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
         <v>173</v>
@@ -2076,565 +2112,565 @@
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" t="s">
         <v>185</v>
       </c>
-      <c r="B54" t="s">
-        <v>186</v>
-      </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B63">
         <v>0.1</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" t="s">
         <v>213</v>
       </c>
-      <c r="B64" t="s">
-        <v>214</v>
-      </c>
       <c r="C64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" t="s">
         <v>215</v>
       </c>
-      <c r="B65" t="s">
-        <v>216</v>
-      </c>
       <c r="C65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" t="s">
         <v>217</v>
       </c>
-      <c r="B66" t="s">
-        <v>218</v>
-      </c>
       <c r="C66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" t="s">
         <v>219</v>
       </c>
-      <c r="B67" t="s">
-        <v>220</v>
-      </c>
       <c r="C67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" t="s">
         <v>221</v>
       </c>
-      <c r="B68" t="s">
-        <v>222</v>
-      </c>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" t="s">
         <v>223</v>
       </c>
-      <c r="B69" t="s">
-        <v>224</v>
-      </c>
       <c r="C69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" t="s">
         <v>225</v>
       </c>
-      <c r="B70" t="s">
-        <v>226</v>
-      </c>
       <c r="C70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" t="s">
         <v>227</v>
       </c>
-      <c r="B71" t="s">
-        <v>228</v>
-      </c>
       <c r="C71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s">
         <v>229</v>
       </c>
-      <c r="B72" t="s">
-        <v>230</v>
-      </c>
       <c r="C72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" t="s">
         <v>231</v>
       </c>
-      <c r="B73" t="s">
-        <v>232</v>
-      </c>
       <c r="C73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" t="s">
         <v>233</v>
       </c>
-      <c r="B74" t="s">
-        <v>234</v>
-      </c>
       <c r="C74" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" t="s">
         <v>235</v>
       </c>
-      <c r="B75" t="s">
-        <v>236</v>
-      </c>
       <c r="C75" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" t="s">
         <v>237</v>
       </c>
-      <c r="B76" t="s">
-        <v>238</v>
-      </c>
       <c r="C76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" t="s">
         <v>239</v>
       </c>
-      <c r="B77" t="s">
-        <v>240</v>
-      </c>
       <c r="C77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" t="s">
         <v>241</v>
       </c>
-      <c r="B78" t="s">
-        <v>242</v>
-      </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" t="s">
         <v>243</v>
       </c>
-      <c r="B79" t="s">
-        <v>244</v>
-      </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" t="s">
         <v>245</v>
       </c>
-      <c r="B80" t="s">
-        <v>246</v>
-      </c>
       <c r="C80" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" t="s">
         <v>247</v>
       </c>
-      <c r="B81" t="s">
-        <v>248</v>
-      </c>
       <c r="C81" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" t="s">
         <v>249</v>
       </c>
-      <c r="B82" t="s">
-        <v>250</v>
-      </c>
       <c r="C82" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" t="s">
         <v>251</v>
       </c>
-      <c r="B83" t="s">
-        <v>252</v>
-      </c>
       <c r="C83" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
+        <v>252</v>
+      </c>
+      <c r="B84" t="s">
         <v>253</v>
       </c>
-      <c r="B84" t="s">
-        <v>254</v>
-      </c>
       <c r="C84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="s">
+        <v>254</v>
+      </c>
+      <c r="B85" t="s">
         <v>255</v>
       </c>
-      <c r="B85" t="s">
-        <v>256</v>
-      </c>
       <c r="C85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" t="s">
         <v>257</v>
       </c>
-      <c r="B86" t="s">
-        <v>258</v>
-      </c>
       <c r="C86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
+        <v>258</v>
+      </c>
+      <c r="B87" t="s">
         <v>259</v>
       </c>
-      <c r="B87" t="s">
-        <v>260</v>
-      </c>
       <c r="C87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" t="s">
         <v>262</v>
       </c>
-      <c r="B89" t="s">
-        <v>263</v>
-      </c>
       <c r="C89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" t="s">
         <v>264</v>
       </c>
-      <c r="B90" t="s">
-        <v>265</v>
-      </c>
       <c r="C90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" t="s">
         <v>266</v>
       </c>
-      <c r="B91" t="s">
-        <v>267</v>
-      </c>
       <c r="C91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" t="s">
         <v>268</v>
       </c>
-      <c r="B92" t="s">
-        <v>269</v>
-      </c>
       <c r="C92" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B97" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C97" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B98" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C98" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B99" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C99" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C100" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B102" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C102" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B103" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C103" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B104" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C104" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B105">
         <v>2000</v>
@@ -2642,7 +2678,7 @@
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B106">
         <v>1000</v>
@@ -2653,7 +2689,7 @@
         <v>60</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C107" t="s">
         <v>160</v>
@@ -2663,8 +2699,8 @@
       <c r="A108" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>338</v>
+      <c r="B108" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="C108" t="s">
         <v>161</v>
@@ -2672,31 +2708,59 @@
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
       <c r="A109" t="s">
+        <v>338</v>
+      </c>
+      <c r="B109" t="s">
         <v>339</v>
       </c>
-      <c r="B109" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="111" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="112" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
+    </row>
+    <row r="110" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A110" t="s">
+        <v>342</v>
+      </c>
+      <c r="B110" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A111" t="s">
+        <v>344</v>
+      </c>
+      <c r="B111" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A112" t="s">
+        <v>346</v>
+      </c>
+      <c r="B112" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A113" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="115" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="116" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="117" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="118" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="119" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="120" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="121" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="122" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="123" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="124" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="125" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="126" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="127" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="128" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="129" ht="14.25" customHeight="1"/>
     <row r="130" ht="14.25" customHeight="1"/>
     <row r="131" ht="14.25" customHeight="1"/>
@@ -3542,8 +3606,11 @@
     <row r="971" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B108" r:id="rId1" xr:uid="{A0BF1E4F-208E-429D-ADB2-421137DD02EA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6C693E-FD20-4F94-9710-89F7CB14B2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDCD61A-42BE-42C3-9E2F-538C84E56128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="14400" windowHeight="7344" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="14400" windowHeight="7344" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="356">
   <si>
     <t>Name</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>PH</t>
-  </si>
-  <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\</t>
   </si>
   <si>
     <t>InvoicePath</t>
@@ -602,9 +599,6 @@
   </si>
   <si>
     <t>MonthlyCustomerSheet</t>
-  </si>
-  <si>
-    <t>C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Exceptions_Screenshots\</t>
   </si>
   <si>
     <t>Hello Receiver, 
@@ -1116,6 +1110,30 @@
   </si>
   <si>
     <t>M:\2. Sales Department\Unipath\Schedule Detail Files\ScheduleDetails_Bot2.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Input\</t>
+  </si>
+  <si>
+    <t>Exceptions_Screenshots\</t>
+  </si>
+  <si>
+    <t>MinHoursCellForMonthly</t>
+  </si>
+  <si>
+    <t>W19</t>
+  </si>
+  <si>
+    <t>QuotationNumberCell</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>QuotationNumberCellStd</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -1505,8 +1523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z971"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1571,7 +1589,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -1582,7 +1600,7 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -1593,7 +1611,7 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -1601,10 +1619,10 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1612,10 +1630,10 @@
         <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -1626,7 +1644,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1637,7 +1655,7 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1648,7 +1666,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
@@ -1659,7 +1677,7 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -1667,10 +1685,10 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="42.6" customHeight="1">
@@ -1678,32 +1696,32 @@
         <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="25.2" customHeight="1">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18.600000000000001" customHeight="1">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1">
@@ -1711,10 +1729,10 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
@@ -1722,10 +1740,10 @@
         <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
@@ -1733,10 +1751,10 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
@@ -1744,10 +1762,10 @@
         <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
@@ -1755,10 +1773,10 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
@@ -1766,10 +1784,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
@@ -1777,10 +1795,10 @@
         <v>72</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
@@ -1788,10 +1806,10 @@
         <v>63</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
@@ -1799,10 +1817,10 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>349</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
@@ -1813,7 +1831,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
@@ -1824,7 +1842,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
@@ -1835,7 +1853,7 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
@@ -1846,7 +1864,7 @@
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
@@ -1857,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
@@ -1865,10 +1883,10 @@
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
@@ -1879,7 +1897,7 @@
         <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -1890,7 +1908,7 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1">
@@ -1901,776 +1919,776 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1">
       <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="B35" t="s">
-        <v>83</v>
-      </c>
       <c r="C35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
         <v>84</v>
       </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
       <c r="C36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
         <v>87</v>
       </c>
-      <c r="B37" t="s">
-        <v>88</v>
-      </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41">
         <v>10000</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1">
       <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
         <v>95</v>
       </c>
-      <c r="B42" t="s">
-        <v>96</v>
-      </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1">
       <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" t="s">
         <v>97</v>
       </c>
-      <c r="B43" t="s">
-        <v>98</v>
-      </c>
       <c r="C43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1">
       <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
         <v>110</v>
       </c>
-      <c r="B44" t="s">
-        <v>111</v>
-      </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1">
       <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" t="s">
         <v>162</v>
       </c>
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1">
       <c r="A49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" t="s">
         <v>164</v>
       </c>
-      <c r="B49" t="s">
-        <v>165</v>
-      </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1">
       <c r="A50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
         <v>172</v>
-      </c>
-      <c r="B50" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1">
       <c r="A51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
         <v>174</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C51" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1">
       <c r="A53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1">
       <c r="A54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" t="s">
         <v>185</v>
-      </c>
-      <c r="C54" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
         <v>186</v>
-      </c>
-      <c r="C55" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1">
       <c r="A57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.25" customHeight="1">
       <c r="A58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1">
       <c r="A59" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1">
       <c r="A60" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B63">
         <v>0.1</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1">
       <c r="A65" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1">
       <c r="A66" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1">
       <c r="A67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C70" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B71" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B73" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B74" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1">
       <c r="A77" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1">
       <c r="A78" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B78" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C78" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1">
       <c r="A79" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C79" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1">
       <c r="A80" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C80" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1">
       <c r="A81" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B81" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1">
       <c r="A82" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B82" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C82" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1">
       <c r="A83" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C84" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1">
       <c r="A85" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1">
       <c r="A86" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1">
       <c r="A87" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1">
       <c r="A88" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B88" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1">
       <c r="A90" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B90" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C90" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1">
       <c r="A91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B91" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1">
       <c r="A92" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B92" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C93" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B94" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C94" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C95" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1">
       <c r="A96" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1">
       <c r="A97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B97" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1">
       <c r="A98" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C98" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1">
       <c r="A99" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B99" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1">
       <c r="A101" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B101" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1">
       <c r="A102" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1">
       <c r="A103" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C103" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1">
       <c r="A104" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B104" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C104" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1">
       <c r="A105" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B105">
         <v>2000</v>
@@ -2678,7 +2696,7 @@
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1">
       <c r="A106" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B106">
         <v>1000</v>
@@ -2689,10 +2707,10 @@
         <v>60</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C107" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1">
@@ -2700,55 +2718,76 @@
         <v>53</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1">
       <c r="A109" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B109" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1">
       <c r="A110" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B110" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1">
       <c r="A111" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B111" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1">
       <c r="A112" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B112" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.25" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="115" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="116" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A114" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A116" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
     <row r="117" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="118" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="119" spans="1:2" ht="14.25" customHeight="1"/>
@@ -5862,10 +5901,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Bot2_Config.xlsx
+++ b/Data/Bot2_Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDCD61A-42BE-42C3-9E2F-538C84E56128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F3B92-C47D-4F20-863E-B7F751433EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="14400" windowHeight="7344" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="14400" windowHeight="7344" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:Z971"/>
   <sheetViews>
     <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
